--- a/testdata/baidu.xlsx
+++ b/testdata/baidu.xlsx
@@ -21,7 +21,7 @@
     <t>用例名称</t>
   </si>
   <si>
-    <t>input_text</t>
+    <t>scanner</t>
   </si>
   <si>
     <t>查询selenium</t>
@@ -998,7 +998,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
